--- a/results/JUAN STENLY TITAHENA.xlsx
+++ b/results/JUAN STENLY TITAHENA.xlsx
@@ -67,70 +67,70 @@
     <t>SALES</t>
   </si>
   <si>
+    <t>KASUARI ADITYA JAYA AP</t>
+  </si>
+  <si>
+    <t>D-VIT SYRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML PLUS SUSPENSI</t>
+  </si>
+  <si>
+    <t>CALNIC 30 PLUS KAPLET</t>
+  </si>
+  <si>
+    <t>K-24 BINTARO SEKTOR 5 AP</t>
+  </si>
+  <si>
+    <t>KARUNIA PUSPITA UTAMA (CIRENDEU) PT</t>
+  </si>
+  <si>
+    <t>CALNIC 30 KAPLET</t>
+  </si>
+  <si>
+    <t>PONDOK INDAH BINTARO RS</t>
+  </si>
+  <si>
+    <t>RAJAWALI AP - TANGERANG</t>
+  </si>
+  <si>
+    <t>D-VIT FLASH TABLET</t>
+  </si>
+  <si>
+    <t>CAHAYA AP</t>
+  </si>
+  <si>
+    <t>CALNIC 100 ML SUSPENSI</t>
+  </si>
+  <si>
+    <t>MEDIKALOKA CIPUTAT PT</t>
+  </si>
+  <si>
+    <t>K-24 SERUA MAKMUR AP</t>
+  </si>
+  <si>
+    <t>KAWIJAYA BINTARO AP</t>
+  </si>
+  <si>
+    <t>CITRA ANANDA RS</t>
+  </si>
+  <si>
+    <t>GASTROLAN 30 MG KAPSUL</t>
+  </si>
+  <si>
+    <t>K-24 FIERA BOULEVARD AP</t>
+  </si>
+  <si>
     <t>APOTEK BINTARO WOMEN AND CHILDREN CLINIC (BWCC)</t>
   </si>
   <si>
-    <t>D-VIT FLASH TABLET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>K-24 BINTARO SEKTOR 5 AP</t>
-  </si>
-  <si>
-    <t>CALNIC 30 PLUS KAPLET</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML PLUS SUSPENSI</t>
-  </si>
-  <si>
-    <t>RAJAWALI AP - TANGERANG</t>
-  </si>
-  <si>
-    <t>KARUNIA PUSPITA UTAMA (CIRENDEU) PT</t>
-  </si>
-  <si>
-    <t>CALNIC 30 KAPLET</t>
-  </si>
-  <si>
-    <t>MEDIKALOKA CIPUTAT PT</t>
-  </si>
-  <si>
-    <t>CALNIC 100 ML SUSPENSI</t>
-  </si>
-  <si>
     <t>PANDJI ANWAR DWIZRA IR (APOTEK OLAF)</t>
   </si>
   <si>
-    <t>K-24 FIERA BOULEVARD AP</t>
-  </si>
-  <si>
     <t>K24 BINTARO SEKTOR 9 AP</t>
-  </si>
-  <si>
-    <t>CITRA ANANDA RS</t>
-  </si>
-  <si>
-    <t>GASTROLAN 30 MG KAPSUL</t>
-  </si>
-  <si>
-    <t>PONDOK INDAH BINTARO RS</t>
-  </si>
-  <si>
-    <t>KAWIJAYA BINTARO AP</t>
-  </si>
-  <si>
-    <t>D-VIT SYRUP</t>
-  </si>
-  <si>
-    <t>CAHAYA AP</t>
-  </si>
-  <si>
-    <t>K-24 SERUA MAKMUR AP</t>
-  </si>
-  <si>
-    <t>KASUARI ADITYA JAYA AP</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -842,13 +842,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="11">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H12" s="11">
-        <v>750000</v>
+        <v>90000</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -858,16 +858,16 @@
         <v>19</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G13" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H13" s="12">
-        <v>750000</v>
+        <v>120000</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -877,23 +877,23 @@
         <v>19</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="11">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G14" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11">
-        <v>750000</v>
+        <v>138000</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="8"/>
       <c r="D15" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>21</v>
@@ -915,7 +915,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="11">
         <v>60000</v>
@@ -934,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="12">
         <v>60000</v>
@@ -953,16 +953,16 @@
         <v>23</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="11">
-        <v>138000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="11">
-        <v>276000</v>
+        <v>180000</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -972,42 +972,42 @@
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19" s="12">
-        <v>75000</v>
+        <v>138000</v>
       </c>
       <c r="G19" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12">
-        <v>150000</v>
+        <v>138000</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="8"/>
       <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="11">
-        <v>60000</v>
+        <v>112500</v>
       </c>
       <c r="G20" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="11">
-        <v>180000</v>
+        <v>112500</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="8"/>
       <c r="D21" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>21</v>
@@ -1016,10 +1016,10 @@
         <v>138000</v>
       </c>
       <c r="G21" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H21" s="12">
-        <v>138000</v>
+        <v>690000</v>
       </c>
       <c r="I21" s="10"/>
     </row>
@@ -1029,111 +1029,111 @@
         <v>19</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22" s="11">
-        <v>112500</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H22" s="11">
-        <v>112500</v>
+        <v>720000</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="8"/>
       <c r="D23" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F23" s="12">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H23" s="12">
-        <v>165000</v>
+        <v>720000</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="8"/>
       <c r="D24" s="11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11">
         <v>60000</v>
       </c>
       <c r="G24" s="11">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H24" s="11">
-        <v>60000</v>
+        <v>720000</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="8"/>
       <c r="D25" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="12">
-        <v>60000</v>
+        <v>138000</v>
       </c>
       <c r="G25" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="12">
-        <v>300000</v>
+        <v>276000</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F26" s="11">
-        <v>138000</v>
+        <v>75000</v>
       </c>
       <c r="G26" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="11">
-        <v>138000</v>
+        <v>150000</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="8"/>
       <c r="D27" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="12">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G27" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="12">
-        <v>180000</v>
+        <v>30000</v>
       </c>
       <c r="I27" s="10"/>
     </row>
@@ -1143,7 +1143,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="11">
         <v>60000</v>
@@ -1162,35 +1162,35 @@
         <v>19</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F29" s="12">
-        <v>280000</v>
+        <v>75000</v>
       </c>
       <c r="G29" s="12">
         <v>1</v>
       </c>
       <c r="H29" s="12">
-        <v>280000</v>
+        <v>75000</v>
       </c>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F30" s="11">
-        <v>138000</v>
+        <v>55000</v>
       </c>
       <c r="G30" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" s="11">
-        <v>690000</v>
+        <v>55000</v>
       </c>
       <c r="I30" s="10"/>
     </row>
@@ -1200,16 +1200,16 @@
         <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F31" s="12">
         <v>60000</v>
       </c>
       <c r="G31" s="12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H31" s="12">
-        <v>720000</v>
+        <v>60000</v>
       </c>
       <c r="I31" s="10"/>
     </row>
@@ -1219,73 +1219,73 @@
         <v>19</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" s="11">
         <v>60000</v>
       </c>
       <c r="G32" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H32" s="11">
-        <v>720000</v>
+        <v>180000</v>
       </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="8"/>
       <c r="D33" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F33" s="12">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G33" s="12">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H33" s="12">
-        <v>720000</v>
+        <v>165000</v>
       </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F34" s="11">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34" s="11">
-        <v>180000</v>
+        <v>120000</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="8"/>
       <c r="D35" s="12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F35" s="12">
-        <v>30000</v>
+        <v>112500</v>
       </c>
       <c r="G35" s="12">
         <v>1</v>
       </c>
       <c r="H35" s="12">
-        <v>30000</v>
+        <v>112500</v>
       </c>
       <c r="I35" s="10"/>
     </row>
@@ -1295,16 +1295,16 @@
         <v>19</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="11">
         <v>60000</v>
       </c>
       <c r="G36" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="11">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="I36" s="10"/>
     </row>
@@ -1314,54 +1314,54 @@
         <v>19</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F37" s="12">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G37" s="12">
         <v>1</v>
       </c>
       <c r="H37" s="12">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="G38" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38" s="11">
-        <v>55000</v>
+        <v>180000</v>
       </c>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="8"/>
       <c r="D39" s="12" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" s="12">
         <v>60000</v>
       </c>
       <c r="G39" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="12">
-        <v>60000</v>
+        <v>180000</v>
       </c>
       <c r="I39" s="10"/>
     </row>
@@ -1371,73 +1371,73 @@
         <v>19</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="11">
         <v>60000</v>
       </c>
       <c r="G40" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" s="11">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="8"/>
       <c r="D41" s="12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F41" s="12">
-        <v>60000</v>
+        <v>280000</v>
       </c>
       <c r="G41" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="12">
-        <v>120000</v>
+        <v>280000</v>
       </c>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="8"/>
       <c r="D42" s="11" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F42" s="11">
-        <v>112500</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" s="11">
-        <v>112500</v>
+        <v>300000</v>
       </c>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="8"/>
       <c r="D43" s="12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F43" s="12">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G43" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H43" s="12">
-        <v>120000</v>
+        <v>750000</v>
       </c>
       <c r="I43" s="10"/>
     </row>
@@ -1450,58 +1450,58 @@
         <v>27</v>
       </c>
       <c r="F44" s="11">
-        <v>55000</v>
+        <v>75000</v>
       </c>
       <c r="G44" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H44" s="11">
-        <v>55000</v>
+        <v>750000</v>
       </c>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="8"/>
       <c r="D45" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F45" s="12">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="G45" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H45" s="12">
-        <v>90000</v>
+        <v>750000</v>
       </c>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="8"/>
       <c r="D46" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F46" s="11">
         <v>60000</v>
       </c>
       <c r="G46" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="11">
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="8"/>
       <c r="D47" s="12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>21</v>
